--- a/Result/2_Acc_reading.xlsx
+++ b/Result/2_Acc_reading.xlsx
@@ -1470,6 +1470,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Sensor1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2213,6 +2216,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Sensor2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2962,11 +2968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="454908416"/>
-        <c:axId val="454909592"/>
+        <c:axId val="212592728"/>
+        <c:axId val="212595864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="454908416"/>
+        <c:axId val="212592728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454909592"/>
+        <c:crossAx val="212595864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +3022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454909592"/>
+        <c:axId val="212595864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,7 +3073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454908416"/>
+        <c:crossAx val="212592728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3232,6 +3238,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Sensor1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3975,6 +3984,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Sensor2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4724,11 +4736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="454913120"/>
-        <c:axId val="454918216"/>
+        <c:axId val="212597432"/>
+        <c:axId val="212598216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="454913120"/>
+        <c:axId val="212597432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4770,7 +4782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454918216"/>
+        <c:crossAx val="212598216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4778,7 +4790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454918216"/>
+        <c:axId val="212598216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4829,7 +4841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454913120"/>
+        <c:crossAx val="212597432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4989,6 +5001,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Sensor 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5732,6 +5747,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Sensor2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -6481,11 +6499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="470865448"/>
-        <c:axId val="470864664"/>
+        <c:axId val="212596648"/>
+        <c:axId val="212598608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="470865448"/>
+        <c:axId val="212596648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6527,7 +6545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470864664"/>
+        <c:crossAx val="212598608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6535,7 +6553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="470864664"/>
+        <c:axId val="212598608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6586,7 +6604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470865448"/>
+        <c:crossAx val="212596648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8339,16 +8357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8369,15 +8387,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8399,16 +8417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10060,8 +10078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D181" workbookViewId="0">
-      <selection activeCell="D239" activeCellId="1" sqref="B1:B239 D1:D239"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
